--- a/Backup/Order_Items.xlsx
+++ b/Backup/Order_Items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Price</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>IsDeleted</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +483,9 @@
       <c r="E2" t="n">
         <v>15000</v>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -497,6 +505,9 @@
       <c r="E3" t="n">
         <v>7000</v>
       </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -516,6 +527,9 @@
       <c r="E4" t="n">
         <v>5400</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -535,6 +549,9 @@
       <c r="E5" t="n">
         <v>12000</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -553,6 +570,361 @@
       </c>
       <c r="E6" t="n">
         <v>8000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PAMR2234</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>31.89830508474576</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>90</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>105</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>23</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>24</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="n">
+        <v>150</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PAMP0234</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11898.72727272727</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>25</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>40</v>
+      </c>
+      <c r="E14" t="n">
+        <v>300</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PAMR2234</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>40</v>
+      </c>
+      <c r="E15" t="n">
+        <v>637.9661016949152</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>25</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PAMP0000</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>40</v>
+      </c>
+      <c r="E16" t="n">
+        <v>40</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>26</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>30</v>
+      </c>
+      <c r="E17" t="n">
+        <v>225</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>26</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PMME3455</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>34</v>
+      </c>
+      <c r="E18" t="n">
+        <v>676.3353293413174</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>26</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PAMP0000</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>40</v>
+      </c>
+      <c r="E19" t="n">
+        <v>40</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>28</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>60</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>29</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>30</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>60</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Backup/Order_Items.xlsx
+++ b/Backup/Order_Items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,6 +927,512 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>12</v>
+      </c>
+      <c r="E23" t="n">
+        <v>90</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PAMR2234</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>12</v>
+      </c>
+      <c r="E24" t="n">
+        <v>191.3898305084745</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>32</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>75</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>34</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="n">
+        <v>150</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>34</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PAMR4</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>19</v>
+      </c>
+      <c r="E27" t="n">
+        <v>55152.39477503628</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>34</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>16</v>
+      </c>
+      <c r="E28" t="n">
+        <v>120</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>35</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PMME3455</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>99.46107784431138</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>36</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PAMR4</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5805.515239477503</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>36</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CAND234</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5381.165919282511</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>37</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PAMP0234</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2974.681818181818</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>38</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CAND234</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1793.72197309417</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>39</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PAMP0000</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>39</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PAMP003</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7</v>
+      </c>
+      <c r="E35" t="n">
+        <v>126</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>39</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PMME3455</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>7</v>
+      </c>
+      <c r="E36" t="n">
+        <v>139.2455089820359</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>40</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>60</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>40</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PAMP0234</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>11</v>
+      </c>
+      <c r="E38" t="n">
+        <v>16360.75</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>40</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PAMR2234</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>15</v>
+      </c>
+      <c r="E39" t="n">
+        <v>239.2372881355932</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>40</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PAMR2234</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>15.94915254237288</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PAMR2234</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CAND234</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1793.72197309417</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PAMP003</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>90</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CAND234</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4484.304932735426</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>42</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PAMP003</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>90</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backup/Order_Items.xlsx
+++ b/Backup/Order_Items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1433,6 +1433,138 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>43</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>44</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PAMP001</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>18</v>
+      </c>
+      <c r="E47" t="n">
+        <v>135</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>44</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PAMR2234</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>24</v>
+      </c>
+      <c r="E48" t="n">
+        <v>382.7796610169491</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>45</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PMP234</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2446.035874439462</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>45</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PAMP0000</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>45</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CAND234</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>896.8609865470852</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backup/Order_Items.xlsx
+++ b/Backup/Order_Items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1565,6 +1565,94 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>28</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PAMR4</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5805.515239477503</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>28</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CAND234</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>6</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5381.165919282511</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>28</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PMP234</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>12</v>
+      </c>
+      <c r="E54" t="n">
+        <v>29352.43049327355</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>22</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PAMR2234</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>79.7457627118644</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backup/Order_Items.xlsx
+++ b/Backup/Order_Items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1653,6 +1653,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>19</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CAND234</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1793.72197309417</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backup/Order_Items.xlsx
+++ b/Backup/Order_Items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,7 +594,7 @@
         <v>31.89830508474576</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1672,6 +1672,94 @@
         <v>1793.72197309417</v>
       </c>
       <c r="F56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CAND355</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>19</v>
+      </c>
+      <c r="E57" t="n">
+        <v>13.73124016901582</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>48</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CAND234</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2690.582959641255</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>48</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PAMP003</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>126</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>48</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CAND355</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>19</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13.73124016901582</v>
+      </c>
+      <c r="F60" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Backup/Order_Items.xlsx
+++ b/Backup/Order_Items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,21 +467,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BP-M-002</t>
+          <t>BP-S-001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>62.5</v>
+        <v>6000</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -489,111 +489,23 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BP-L-003</t>
+          <t>CL-C-007</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>250.8333333333333</v>
+        <v>8000</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>71</v>
-      </c>
-      <c r="B4" t="n">
-        <v>56</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CL-B-006</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>72</v>
-      </c>
-      <c r="B5" t="n">
-        <v>57</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BP-S-001</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>73</v>
-      </c>
-      <c r="B6" t="n">
-        <v>57</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BP-XL-004</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13500</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>74</v>
-      </c>
-      <c r="B7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CL-C-007</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1488</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2976000</v>
-      </c>
-      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Backup/Order_Items.xlsx
+++ b/Backup/Order_Items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,116 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BP-XL-004</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31500</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BP-M-002</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BP-M-002</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BP-XXL-005</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>44000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CL-G-008</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backup/Order_Items.xlsx
+++ b/Backup/Order_Items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,6 +619,72 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CL-C-007</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CL-B-006</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CL-C-007</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backup/Order_Items.xlsx
+++ b/Backup/Order_Items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,6 +685,182 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CL-G-008</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CL-B-006</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BP-XL-004</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BP-XL-004</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>27000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BP-L-003</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10500</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>BP-M-002</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>BP-L-003</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BP-L-003</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10500</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
